--- a/html/resources/aoiConditions/train2P2Block7.xlsx
+++ b/html/resources/aoiConditions/train2P2Block7.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
   </si>
 </sst>
 </file>
